--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -627,7 +626,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0-20000-0-62641</t>
+          <t>0-20000-0-62640</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -637,14 +636,14 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>62641</v>
+        <v>62640</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PORT SUDAN</t>
+          <t>ABU HAMED</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -653,17 +652,17 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.21666666666667</v>
+        <v>33.31666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>19.58333333333333</v>
+        <v>19.53333333333333</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>20060208</v>
+        <v>20060103</v>
       </c>
       <c r="O2" t="n">
-        <v>20060724</v>
+        <v>20060905</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -684,7 +683,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Sawakin</t>
+          <t>Barbar</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -723,7 +722,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-64450</t>
+          <t>0-20000-0-65046</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -733,14 +732,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>64450</v>
+        <v>65046</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BRAZZAVILLE /MAYA-MAYA</t>
+          <t>KANO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -749,17 +748,17 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.25</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.25</v>
+        <v>12.05</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20060101</v>
+        <v>20060717</v>
       </c>
       <c r="O3" t="n">
-        <v>20061028</v>
+        <v>20061005</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -776,11 +775,11 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Brazzaville</t>
+          <t>Kano</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -819,7 +818,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-67005</t>
+          <t>0-20000-0-61226</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -829,14 +828,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>67005</v>
+        <v>61226</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PAMANDZI (MAYOTTE)</t>
+          <t>GAO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -845,17 +844,17 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.28277777777777</v>
+        <v>-0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>-12.80555555555556</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>20060206</v>
+        <v>20060104</v>
       </c>
       <c r="O4" t="n">
-        <v>20061107</v>
+        <v>20060317</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -872,11 +871,11 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Dzaoudzi</t>
+          <t>Gao</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -915,7 +914,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20000-0-64400</t>
+          <t>0-20000-0-67781</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -925,14 +924,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>64400</v>
+        <v>67781</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>POINTE-NOIRE</t>
+          <t>MUTOKO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -941,17 +940,17 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.88166666666667</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.804444444444444</v>
+        <v>-17.41666666666667</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>20060104</v>
+        <v>20060619</v>
       </c>
       <c r="O5" t="n">
-        <v>20061219</v>
+        <v>20061224</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -968,11 +967,11 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Loandjili</t>
+          <t>Mutoko</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -1011,7 +1010,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20000-0-62721</t>
+          <t>0-20000-0-62641</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1021,14 +1020,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>62721</v>
+        <v>62641</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KHARTOUM</t>
+          <t>PORT SUDAN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1037,17 +1036,17 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32.55</v>
+        <v>37.21666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>15.6</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>20060115</v>
+        <v>20060208</v>
       </c>
       <c r="O6" t="n">
-        <v>20061224</v>
+        <v>20060724</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1068,7 +1067,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Khartoum</t>
+          <t>Sawakin</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1107,7 +1106,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0-20000-0-08594</t>
+          <t>0-20000-0-67881</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1117,14 +1116,14 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8594</v>
+        <v>67881</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>RUSAPE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1133,17 +1132,17 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-22.94888888888889</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>16.74194444444445</v>
+        <v>-18.53333333333333</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>20060504</v>
+        <v>20060630</v>
       </c>
       <c r="O7" t="n">
-        <v>20060929</v>
+        <v>20060804</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1160,11 +1159,11 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Rusape</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -1203,7 +1202,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-68032</t>
+          <t>0-20000-0-65387</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1213,14 +1212,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>68032</v>
+        <v>65387</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MAUN</t>
+          <t>LOME</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1229,17 +1228,17 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.41666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-19.98333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20060506</v>
+        <v>20060521</v>
       </c>
       <c r="O8" t="n">
-        <v>20060918</v>
+        <v>20061028</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1256,11 +1255,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Maun</t>
+          <t>Aflao</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1299,7 +1298,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0-20000-0-61415</t>
+          <t>0-20000-0-67005</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1309,14 +1308,14 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>61415</v>
+        <v>67005</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NOUADHIBOU</t>
+          <t>PAMANDZI (MAYOTTE)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1325,17 +1324,17 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-17.03638888888889</v>
+        <v>45.28277777777777</v>
       </c>
       <c r="L9" t="n">
-        <v>20.92027777777778</v>
+        <v>-12.80555555555556</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>20060315</v>
+        <v>20060206</v>
       </c>
       <c r="O9" t="n">
-        <v>20061028</v>
+        <v>20061107</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1352,11 +1351,11 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Dzaoudzi</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1395,7 +1394,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0-20000-0-61226</t>
+          <t>0-20000-0-62760</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1405,14 +1404,14 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>61226</v>
+        <v>62760</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>GAO</t>
+          <t>EL FASHER</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1421,17 +1420,17 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.05</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>16.26666666666667</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>20060104</v>
+        <v>20060103</v>
       </c>
       <c r="O10" t="n">
-        <v>20060317</v>
+        <v>20061022</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1448,11 +1447,11 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Gao</t>
+          <t>Umm Kaddadah</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1491,7 +1490,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0-20000-0-62730</t>
+          <t>0-20000-0-62650</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1501,14 +1500,14 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>62730</v>
+        <v>62650</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KASSALA</t>
+          <t>DONGOLA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1517,17 +1516,17 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>36.4</v>
+        <v>30.48333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>15.46666666666667</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>20060103</v>
       </c>
       <c r="O11" t="n">
-        <v>20060806</v>
+        <v>20061224</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Kassala</t>
+          <t>Marawi</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1587,7 +1586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0-20000-0-62650</t>
+          <t>0-20000-0-61090</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1597,14 +1596,14 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>62650</v>
+        <v>61090</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DONGOLA</t>
+          <t>ZINDER</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1613,17 +1612,17 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>30.48333333333333</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>19.16666666666667</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>20060103</v>
+        <v>20061201</v>
       </c>
       <c r="O12" t="n">
-        <v>20061224</v>
+        <v>20061231</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1640,11 +1639,11 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Marawi</t>
+          <t>Zinder</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1683,7 +1682,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20000-0-62760</t>
+          <t>0-20000-0-64450</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1693,14 +1692,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>62760</v>
+        <v>64450</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>EL FASHER</t>
+          <t>BRAZZAVILLE /MAYA-MAYA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1709,17 +1708,17 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.33333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="L13" t="n">
-        <v>13.61666666666667</v>
+        <v>-4.25</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20060103</v>
+        <v>20060101</v>
       </c>
       <c r="O13" t="n">
-        <v>20061022</v>
+        <v>20061028</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1736,11 +1735,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Umm Kaddadah</t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1779,7 +1778,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-64458</t>
+          <t>0-20000-0-65202</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1789,14 +1788,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>64458</v>
+        <v>65202</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>OUESSO</t>
+          <t>LAGOS/OSHODI</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1805,17 +1804,17 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.05</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>1.616666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O14" t="n">
-        <v>20061228</v>
+        <v>20061219</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1832,11 +1831,11 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Ouesso</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -1875,7 +1874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0-20000-0-62640</t>
+          <t>0-20000-0-62721</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1885,14 +1884,14 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>62640</v>
+        <v>62721</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ABU HAMED</t>
+          <t>KHARTOUM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1901,17 +1900,17 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.31666666666667</v>
+        <v>32.55</v>
       </c>
       <c r="L15" t="n">
-        <v>19.53333333333333</v>
+        <v>15.6</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>20060103</v>
+        <v>20060115</v>
       </c>
       <c r="O15" t="n">
-        <v>20060905</v>
+        <v>20061224</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Barbar</t>
+          <t>Khartoum</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -1971,7 +1970,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0-20000-0-67781</t>
+          <t>0-20000-0-62730</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1981,14 +1980,14 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>67781</v>
+        <v>62730</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MUTOKO</t>
+          <t>KASSALA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1997,17 +1996,17 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>32.21666666666667</v>
+        <v>36.4</v>
       </c>
       <c r="L16" t="n">
-        <v>-17.41666666666667</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>20060619</v>
+        <v>20060103</v>
       </c>
       <c r="O16" t="n">
-        <v>20061224</v>
+        <v>20060806</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2024,11 +2023,11 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Mutoko</t>
+          <t>Kassala</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -2067,7 +2066,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0-20000-0-67095</t>
+          <t>0-20000-0-68032</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2077,14 +2076,14 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>67095</v>
+        <v>68032</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TOAMASINA</t>
+          <t>MAUN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2093,17 +2092,17 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>49.4</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>-18.11666666666667</v>
+        <v>-19.98333333333333</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>20060103</v>
+        <v>20060506</v>
       </c>
       <c r="O17" t="n">
-        <v>20061231</v>
+        <v>20060918</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2120,11 +2119,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Toamasina</t>
+          <t>Maun</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -2163,7 +2162,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20000-0-64500</t>
+          <t>0-20000-0-61415</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2173,14 +2172,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>64500</v>
+        <v>61415</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LIBREVILLE</t>
+          <t>NOUADHIBOU</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2189,17 +2188,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.416666666666666</v>
+        <v>-17.03638888888889</v>
       </c>
       <c r="L18" t="n">
-        <v>0.45</v>
+        <v>20.92027777777778</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20060101</v>
+        <v>20060315</v>
       </c>
       <c r="O18" t="n">
-        <v>20061231</v>
+        <v>20061028</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2216,11 +2215,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Nouadhibou</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2259,7 +2258,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20000-0-65046</t>
+          <t>0-20000-0-67095</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2269,14 +2268,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>65046</v>
+        <v>67095</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>KANO</t>
+          <t>TOAMASINA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2285,17 +2284,17 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.533333333333333</v>
+        <v>49.4</v>
       </c>
       <c r="L19" t="n">
-        <v>12.05</v>
+        <v>-18.11666666666667</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20060717</v>
+        <v>20060103</v>
       </c>
       <c r="O19" t="n">
-        <v>20061005</v>
+        <v>20061231</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2312,11 +2311,11 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Kano</t>
+          <t>Toamasina</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -2355,7 +2354,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-61902</t>
+          <t>0-20000-0-64500</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2365,14 +2364,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>61902</v>
+        <v>64500</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
+          <t>LIBREVILLE</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2381,17 +2380,17 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-14.40555555555556</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="L20" t="n">
-        <v>-7.97</v>
+        <v>0.45</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20060503</v>
+        <v>20060101</v>
       </c>
       <c r="O20" t="n">
-        <v>20060929</v>
+        <v>20061231</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2408,11 +2407,11 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2451,7 +2450,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20000-0-67002</t>
+          <t>0-20300-0-62010</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2461,14 +2460,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>67002</v>
+        <v>62010</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HAHAYA INT. AIRPORT</t>
+          <t>TRIPOLI INTL ARPT</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2477,17 +2476,17 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>43.26666666666667</v>
+        <v>13.1667</v>
       </c>
       <c r="L21" t="n">
-        <v>-11.53333333333333</v>
+        <v>32.6833</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20060101</v>
+        <v>20060901</v>
       </c>
       <c r="O21" t="n">
-        <v>20061230</v>
+        <v>20060930</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2504,11 +2503,11 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Moroni</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -2547,7 +2546,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0-20000-0-67881</t>
+          <t>0-20000-0-64400</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2557,14 +2556,14 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>67881</v>
+        <v>64400</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RUSAPE</t>
+          <t>POINTE-NOIRE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2573,17 +2572,17 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.13333333333333</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="L22" t="n">
-        <v>-18.53333333333333</v>
+        <v>-4.804444444444444</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>20060630</v>
+        <v>20060104</v>
       </c>
       <c r="O22" t="n">
-        <v>20060804</v>
+        <v>20061219</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2600,11 +2599,11 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Rusape</t>
+          <t>Loandjili</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -2643,7 +2642,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20300-0-62010</t>
+          <t>0-20000-0-64750</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2653,14 +2652,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>62010</v>
+        <v>64750</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TRIPOLI INTL ARPT</t>
+          <t>SARH</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2669,17 +2668,17 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.1667</v>
+        <v>18.38333333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>32.6833</v>
+        <v>9.15</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>20060901</v>
+        <v>20060105</v>
       </c>
       <c r="O23" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2696,11 +2695,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Sarh</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -2739,7 +2738,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-61090</t>
+          <t>0-20000-0-64458</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2749,14 +2748,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>61090</v>
+        <v>64458</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZINDER</t>
+          <t>OUESSO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2765,17 +2764,17 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.983333333333333</v>
+        <v>16.05</v>
       </c>
       <c r="L24" t="n">
-        <v>13.78333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20061201</v>
+        <v>20060101</v>
       </c>
       <c r="O24" t="n">
-        <v>20061231</v>
+        <v>20061228</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2792,11 +2791,11 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Zinder</t>
+          <t>Ouesso</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -2931,7 +2930,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-64750</t>
+          <t>0-20000-0-08594</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2941,14 +2940,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>64750</v>
+        <v>8594</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SARH</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2957,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>18.38333333333333</v>
+        <v>-22.94888888888889</v>
       </c>
       <c r="L26" t="n">
-        <v>9.15</v>
+        <v>16.74194444444445</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20060105</v>
+        <v>20060504</v>
       </c>
       <c r="O26" t="n">
-        <v>20061231</v>
+        <v>20060929</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2984,11 +2983,11 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Sarh</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -3027,7 +3026,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20000-0-60656</t>
+          <t>0-20000-0-67002</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3037,14 +3036,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>60656</v>
+        <v>67002</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TINDOUF</t>
+          <t>HAHAYA INT. AIRPORT</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3053,17 +3052,17 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.169166666666666</v>
+        <v>43.26666666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>27.70416666666667</v>
+        <v>-11.53333333333333</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O27" t="n">
-        <v>20060930</v>
+        <v>20061230</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3080,11 +3079,11 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Tiznit</t>
+          <t>Moroni</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -3123,7 +3122,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-63894</t>
+          <t>0-20000-0-61902</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3133,14 +3132,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>63894</v>
+        <v>61902</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DAR ES SALAAM INT</t>
+          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3149,14 +3148,14 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.2075</v>
+        <v>-14.40555555555556</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.876111111111111</v>
+        <v>-7.97</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20060607</v>
+        <v>20060503</v>
       </c>
       <c r="O28" t="n">
         <v>20060929</v>
@@ -3176,11 +3175,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Magomeni</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3315,7 +3314,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-65387</t>
+          <t>0-20000-0-63894</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3325,14 +3324,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>65387</v>
+        <v>63894</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LOME</t>
+          <t>DAR ES SALAAM INT</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3341,17 +3340,17 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.25</v>
+        <v>39.2075</v>
       </c>
       <c r="L30" t="n">
-        <v>6.166666666666667</v>
+        <v>-6.876111111111111</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20060521</v>
+        <v>20060607</v>
       </c>
       <c r="O30" t="n">
-        <v>20061028</v>
+        <v>20060929</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3368,11 +3367,11 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Aflao</t>
+          <t>Magomeni</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -3411,7 +3410,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-60760</t>
+          <t>0-20000-0-60360</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3421,14 +3420,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>60760</v>
+        <v>60360</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TOZEUR</t>
+          <t>ANNABA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3437,17 +3436,17 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.166666666666666</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>33.91666666666666</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O31" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3464,11 +3463,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Tawzar</t>
+          <t>Tabarqah</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -3507,7 +3506,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-60360</t>
+          <t>0-20000-0-60656</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3517,14 +3516,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>60360</v>
+        <v>60656</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ANNABA</t>
+          <t>TINDOUF</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3533,17 +3532,17 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.816666666666666</v>
+        <v>-8.169166666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>36.83333333333334</v>
+        <v>27.70416666666667</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>20060101</v>
+        <v>20060501</v>
       </c>
       <c r="O32" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3564,7 +3563,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Tabarqah</t>
+          <t>Tiznit</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -3603,7 +3602,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-61901</t>
+          <t>0-20000-0-63450</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3613,14 +3612,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>61901</v>
+        <v>63450</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ST. HELENA IS.</t>
+          <t>ADDIS ABABA-BOLE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3629,17 +3628,17 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.667222222222223</v>
+        <v>38.75</v>
       </c>
       <c r="L33" t="n">
-        <v>-15.94194444444444</v>
+        <v>9.033333333333331</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>20060501</v>
+        <v>20060106</v>
       </c>
       <c r="O33" t="n">
-        <v>20060929</v>
+        <v>20061228</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3656,11 +3655,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Addis Abeba</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -3699,7 +3698,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-60571</t>
+          <t>0-20000-0-62414</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3709,14 +3708,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>60571</v>
+        <v>62414</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BECHAR</t>
+          <t>ASSWAN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3725,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.252222222222222</v>
+        <v>32.82</v>
       </c>
       <c r="L34" t="n">
-        <v>31.65416666666667</v>
+        <v>23.96444444444444</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
@@ -3752,11 +3751,11 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Mrirt</t>
+          <t>Aswan</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -3891,7 +3890,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-65202</t>
+          <t>0-20000-0-60760</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3901,14 +3900,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>65202</v>
+        <v>60760</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LAGOS/OSHODI</t>
+          <t>TOZEUR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -3917,17 +3916,17 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.383333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>20060104</v>
+        <v>20060501</v>
       </c>
       <c r="O36" t="n">
-        <v>20061219</v>
+        <v>20060930</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3944,11 +3943,11 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Tawzar</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -3987,7 +3986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-62423</t>
+          <t>0-20000-0-62403</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3997,14 +3996,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>62423</v>
+        <v>62403</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FARAFRA</t>
+          <t>SOUTH OF VALLEY UNIVERSITY</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4013,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>27.98916666666666</v>
+        <v>32.74666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>27.05833333333333</v>
+        <v>26.20027777777777</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
@@ -4044,7 +4043,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Matay</t>
+          <t>Qena</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4083,7 +4082,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-62403</t>
+          <t>0-20000-0-60155</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4093,14 +4092,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>62403</v>
+        <v>60155</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SOUTH OF VALLEY UNIVERSITY</t>
+          <t>CASABLANCA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4109,14 +4108,14 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>32.74666666666667</v>
+        <v>-7.666666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>26.20027777777777</v>
+        <v>33.56666666666667</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O38" t="n">
         <v>20060930</v>
@@ -4136,11 +4135,11 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Qena</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -4179,7 +4178,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20000-0-60155</t>
+          <t>0-20000-0-62306</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4189,14 +4188,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>60155</v>
+        <v>62306</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CASABLANCA</t>
+          <t>MERSA MATRUH</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4205,14 +4204,14 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.666666666666667</v>
+        <v>27.22166666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>33.56666666666667</v>
+        <v>31.32527777777777</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O39" t="n">
         <v>20060930</v>
@@ -4232,11 +4231,11 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Marsa Matruh</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -4275,7 +4274,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-62306</t>
+          <t>0-20000-0-62423</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4285,14 +4284,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>62306</v>
+        <v>62423</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MERSA MATRUH</t>
+          <t>FARAFRA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4301,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>27.22166666666666</v>
+        <v>27.98916666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>31.32527777777777</v>
+        <v>27.05833333333333</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
@@ -4332,7 +4331,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Marsa Matruh</t>
+          <t>Matay</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -4371,7 +4370,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-67083</t>
+          <t>0-20000-0-61901</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4381,14 +4380,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>67083</v>
+        <v>61901</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ANTANANARIVO/IVATO</t>
+          <t>ST. HELENA IS.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4397,17 +4396,17 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.48333333333333</v>
+        <v>-5.667222222222223</v>
       </c>
       <c r="L41" t="n">
-        <v>-18.8</v>
+        <v>-15.94194444444444</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O41" t="n">
-        <v>20060930</v>
+        <v>20060929</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4424,11 +4423,11 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -4467,7 +4466,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20000-0-62414</t>
+          <t>0-20000-0-63741</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4477,14 +4476,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>62414</v>
+        <v>63741</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ASSWAN</t>
+          <t>DAGORETTI CORNER</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4493,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.82</v>
+        <v>36.75972222222222</v>
       </c>
       <c r="L42" t="n">
-        <v>23.96444444444444</v>
+        <v>-1.301388888888889</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
@@ -4520,11 +4519,11 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Aswan</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -4563,7 +4562,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-63450</t>
+          <t>0-20000-0-60571</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4573,14 +4572,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>63450</v>
+        <v>60571</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ADDIS ABABA-BOLE</t>
+          <t>BECHAR</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4589,17 +4588,17 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>38.75</v>
+        <v>-2.252222222222222</v>
       </c>
       <c r="L43" t="n">
-        <v>9.033333333333331</v>
+        <v>31.65416666666667</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>20060106</v>
+        <v>20060501</v>
       </c>
       <c r="O43" t="n">
-        <v>20061228</v>
+        <v>20060930</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4616,11 +4615,11 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Addis Abeba</t>
+          <t>Mrirt</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -4659,7 +4658,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-65503</t>
+          <t>0-20000-0-62378</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4669,14 +4668,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>65503</v>
+        <v>62378</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>OUAGADOUGOU</t>
+          <t>HELWAN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4685,17 +4684,17 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.516666666666667</v>
+        <v>31.34916666666667</v>
       </c>
       <c r="L44" t="n">
-        <v>12.35</v>
+        <v>29.86277777777778</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>20060507</v>
+        <v>20060501</v>
       </c>
       <c r="O44" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4712,11 +4711,11 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Ouagadougou</t>
+          <t>Gizeh</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -4755,7 +4754,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-62337</t>
+          <t>0-20000-0-67083</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4765,14 +4764,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>62337</v>
+        <v>67083</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>EL ARISH</t>
+          <t>ANTANANARIVO/IVATO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4781,14 +4780,14 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.83583333333333</v>
+        <v>47.48333333333333</v>
       </c>
       <c r="L45" t="n">
-        <v>31.07333333333333</v>
+        <v>-18.8</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>20060503</v>
+        <v>20060502</v>
       </c>
       <c r="O45" t="n">
         <v>20060930</v>
@@ -4808,11 +4807,11 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Ofaqim</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -4851,7 +4850,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20000-0-62378</t>
+          <t>0-20000-0-62337</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4861,14 +4860,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>62378</v>
+        <v>62337</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HELWAN</t>
+          <t>EL ARISH</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -4877,14 +4876,14 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.34916666666667</v>
+        <v>33.83583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>29.86277777777778</v>
+        <v>31.07333333333333</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>20060501</v>
+        <v>20060503</v>
       </c>
       <c r="O46" t="n">
         <v>20060930</v>
@@ -4908,7 +4907,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Gizeh</t>
+          <t>Ofaqim</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -4947,7 +4946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-08589</t>
+          <t>0-20000-0-60018</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4957,14 +4956,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>8589</v>
+        <v>60018</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PRAIA</t>
+          <t>TENERIFE-GUIMAR</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -4973,17 +4972,17 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-23.48472222222222</v>
+        <v>-16.38222222222222</v>
       </c>
       <c r="L47" t="n">
-        <v>14.94111111111111</v>
+        <v>28.31833333333333</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20060818</v>
+        <v>20060501</v>
       </c>
       <c r="O47" t="n">
-        <v>20060914</v>
+        <v>20060930</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5000,11 +4999,11 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Praia</t>
+          <t>Guimar</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5043,7 +5042,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-61223</t>
+          <t>0-20000-0-65503</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -5053,14 +5052,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>61223</v>
+        <v>65503</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TOMBOUCTOU</t>
+          <t>OUAGADOUGOU</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5069,14 +5068,14 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-3</v>
+        <v>-1.516666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>16.71666666666667</v>
+        <v>12.35</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>20060101</v>
+        <v>20060507</v>
       </c>
       <c r="O48" t="n">
         <v>20061231</v>
@@ -5096,11 +5095,11 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Tombouctou</t>
+          <t>Ouagadougou</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5139,7 +5138,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-60018</t>
+          <t>0-20000-0-60680</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5149,14 +5148,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>60018</v>
+        <v>60680</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TENERIFE-GUIMAR</t>
+          <t>TAMANRASSET</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5165,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-16.38222222222222</v>
+        <v>5.452500000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>28.31833333333333</v>
+        <v>22.82527777777777</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
@@ -5192,11 +5191,11 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Guimar</t>
+          <t>Arlit</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5235,7 +5234,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-63741</t>
+          <t>0-20000-0-08589</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5245,14 +5244,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>63741</v>
+        <v>8589</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DAGORETTI CORNER</t>
+          <t>PRAIA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5261,17 +5260,17 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>36.75972222222222</v>
+        <v>-23.48472222222222</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.301388888888889</v>
+        <v>14.94111111111111</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20060501</v>
+        <v>20060818</v>
       </c>
       <c r="O50" t="n">
-        <v>20060930</v>
+        <v>20060914</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5288,11 +5287,11 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>Praia</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -5331,7 +5330,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-64700</t>
+          <t>0-20000-0-60390</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5341,14 +5340,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>64700</v>
+        <v>60390</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>NDJAMENA</t>
+          <t>DAR-EL-BEIDA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5357,17 +5356,17 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>15.03333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>12.13333333333333</v>
+        <v>36.69</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>20060101</v>
       </c>
       <c r="O51" t="n">
-        <v>20061217</v>
+        <v>20061231</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5384,11 +5383,11 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Kousseri</t>
+          <t>Algiers</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -5427,7 +5426,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-60390</t>
+          <t>0-20000-0-64650</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5437,14 +5436,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>60390</v>
+        <v>64650</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>DAR-EL-BEIDA</t>
+          <t>BANGUI</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5453,17 +5452,17 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>3.216666666666667</v>
+        <v>18.51666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>36.69</v>
+        <v>4.4</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>20060101</v>
+        <v>20060427</v>
       </c>
       <c r="O52" t="n">
-        <v>20061231</v>
+        <v>20061214</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5480,11 +5479,11 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Algiers</t>
+          <t>Bangui</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -5523,7 +5522,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-60680</t>
+          <t>0-20000-0-64870</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5533,14 +5532,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>60680</v>
+        <v>64870</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TAMANRASSET</t>
+          <t>NGAOUNDERE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5549,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>5.452500000000001</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>22.82527777777777</v>
+        <v>7.35</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
@@ -5576,11 +5575,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Arlit</t>
+          <t>Ngaoundere</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -5619,7 +5618,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-64650</t>
+          <t>0-20000-0-61223</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5629,14 +5628,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>64650</v>
+        <v>61223</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BANGUI</t>
+          <t>TOMBOUCTOU</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5645,17 +5644,17 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>18.51666666666667</v>
+        <v>-3</v>
       </c>
       <c r="L54" t="n">
-        <v>4.4</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>20060427</v>
+        <v>20060101</v>
       </c>
       <c r="O54" t="n">
-        <v>20061214</v>
+        <v>20061231</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5672,11 +5671,11 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Bangui</t>
+          <t>Tombouctou</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -5715,7 +5714,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-61687</t>
+          <t>0-20000-0-64700</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5725,14 +5724,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>61687</v>
+        <v>64700</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>TAMBACOUNDA</t>
+          <t>NDJAMENA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5741,17 +5740,17 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.67972222222222</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="L55" t="n">
-        <v>13.76972222222222</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>20060322</v>
+        <v>20060101</v>
       </c>
       <c r="O55" t="n">
-        <v>20061230</v>
+        <v>20061217</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5768,11 +5767,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Tambacounda</t>
+          <t>Kousseri</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -5811,7 +5810,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-64870</t>
+          <t>0-20000-0-60715</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5821,14 +5820,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>64870</v>
+        <v>60715</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NGAOUNDERE</t>
+          <t>TUNIS-CARTHAGE</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5837,10 +5836,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>13.56666666666667</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="L56" t="n">
-        <v>7.35</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
@@ -5864,11 +5863,11 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Ngaoundere</t>
+          <t>Aryanah</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -6003,7 +6002,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20000-0-60715</t>
+          <t>0-20000-0-61687</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -6013,14 +6012,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>60715</v>
+        <v>61687</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>TUNIS-CARTHAGE</t>
+          <t>TAMBACOUNDA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -6029,17 +6028,17 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>10.23333333333333</v>
+        <v>-13.67972222222222</v>
       </c>
       <c r="L58" t="n">
-        <v>36.83333333333334</v>
+        <v>13.76972222222222</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>20060501</v>
+        <v>20060322</v>
       </c>
       <c r="O58" t="n">
-        <v>20060930</v>
+        <v>20061230</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6056,11 +6055,11 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Aryanah</t>
+          <t>Tambacounda</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -6195,7 +6194,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-65125</t>
+          <t>0-20000-0-61641</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -6205,14 +6204,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>65125</v>
+        <v>61641</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ABUJA</t>
+          <t>DAKAR/YOFF</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -6221,17 +6220,17 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>-17.5</v>
       </c>
       <c r="L60" t="n">
-        <v>9.25</v>
+        <v>14.73</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>20060608</v>
+        <v>20060101</v>
       </c>
       <c r="O60" t="n">
-        <v>20061226</v>
+        <v>20061231</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6248,11 +6247,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Abuja</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -6387,7 +6386,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20001-0-64910</t>
+          <t>0-20000-0-61024</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -6397,14 +6396,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>64910</v>
+        <v>61024</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>DOUALA R.S.</t>
+          <t>AGADEZ</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6413,17 +6412,17 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>9.699999999999999</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="L62" t="n">
-        <v>4.016666666666667</v>
+        <v>16.96666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20060209</v>
+        <v>20060120</v>
       </c>
       <c r="O62" t="n">
-        <v>20061220</v>
+        <v>20061010</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6440,11 +6439,11 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Douala</t>
+          <t>Agadez</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -6483,7 +6482,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-65330</t>
+          <t>0-20001-0-64910</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -6493,14 +6492,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>65330</v>
+        <v>64910</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PARAKOU</t>
+          <t>DOUALA R.S.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6509,17 +6508,17 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>2.616666666666667</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>9.35</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>20060101</v>
+        <v>20060209</v>
       </c>
       <c r="O63" t="n">
-        <v>20061231</v>
+        <v>20061220</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6536,11 +6535,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Parakou</t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -6579,7 +6578,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-61024</t>
+          <t>0-20000-0-65125</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -6589,14 +6588,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>61024</v>
+        <v>65125</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AGADEZ</t>
+          <t>ABUJA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6605,17 +6604,17 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>7.983333333333333</v>
+        <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>16.96666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>20060120</v>
+        <v>20060608</v>
       </c>
       <c r="O64" t="n">
-        <v>20061010</v>
+        <v>20061226</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6632,11 +6631,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Agadez</t>
+          <t>Abuja</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -6675,7 +6674,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-65418</t>
+          <t>0-20000-0-61052</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -6685,14 +6684,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>65418</v>
+        <v>61052</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TAMALE</t>
+          <t>NIAMEY-AERO</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6701,17 +6700,17 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.85</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>9.550000000000001</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>20060508</v>
+        <v>20060118</v>
       </c>
       <c r="O65" t="n">
-        <v>20061227</v>
+        <v>20061231</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6728,11 +6727,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Tamale</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -6771,7 +6770,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20000-0-61641</t>
+          <t>0-20000-0-65418</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -6781,14 +6780,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>61641</v>
+        <v>65418</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>DAKAR/YOFF</t>
+          <t>TAMALE</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -6797,17 +6796,17 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-17.5</v>
+        <v>-0.85</v>
       </c>
       <c r="L66" t="n">
-        <v>14.73</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>20060101</v>
+        <v>20060508</v>
       </c>
       <c r="O66" t="n">
-        <v>20061231</v>
+        <v>20061227</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6824,11 +6823,11 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Tamale</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -6867,7 +6866,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-61052</t>
+          <t>0-20000-0-65344</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -6877,14 +6876,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>61052</v>
+        <v>65344</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NIAMEY-AERO</t>
+          <t>COTONOU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -6893,17 +6892,17 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2.166666666666667</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="L67" t="n">
-        <v>13.48333333333333</v>
+        <v>6.35</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>20060118</v>
+        <v>20060101</v>
       </c>
       <c r="O67" t="n">
-        <v>20061231</v>
+        <v>20061213</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6920,11 +6919,11 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Cotonou</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -6963,7 +6962,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-65344</t>
+          <t>0-20000-0-65330</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -6973,14 +6972,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>65344</v>
+        <v>65330</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>COTONOU</t>
+          <t>PARAKOU</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -6989,17 +6988,17 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2.383333333333333</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>6.35</v>
+        <v>9.35</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>20060101</v>
       </c>
       <c r="O68" t="n">
-        <v>20061213</v>
+        <v>20061231</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7020,7 +7019,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Cotonou</t>
+          <t>Parakou</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>

--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL68"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-65046</t>
+          <t>0-20000-0-61226</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -732,14 +732,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>65046</v>
+        <v>61226</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KANO</t>
+          <t>GAO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -748,17 +748,17 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.533333333333333</v>
+        <v>-0.05</v>
       </c>
       <c r="L3" t="n">
-        <v>12.05</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20060717</v>
+        <v>20060104</v>
       </c>
       <c r="O3" t="n">
-        <v>20061005</v>
+        <v>20060317</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -775,11 +775,11 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Kano</t>
+          <t>Gao</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-61226</t>
+          <t>0-20000-0-65046</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -828,14 +828,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>61226</v>
+        <v>65046</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GAO</t>
+          <t>KANO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -844,17 +844,17 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>16.26666666666667</v>
+        <v>12.05</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>20060104</v>
+        <v>20060717</v>
       </c>
       <c r="O4" t="n">
-        <v>20060317</v>
+        <v>20061005</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -871,11 +871,11 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Gao</t>
+          <t>Kano</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20000-0-62641</t>
+          <t>0-20000-0-65387</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1020,14 +1020,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>62641</v>
+        <v>65387</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PORT SUDAN</t>
+          <t>LOME</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1036,17 +1036,17 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.21666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L6" t="n">
-        <v>19.58333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>20060208</v>
+        <v>20060521</v>
       </c>
       <c r="O6" t="n">
-        <v>20060724</v>
+        <v>20061028</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Sawakin</t>
+          <t>Aflao</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-65387</t>
+          <t>0-20000-0-62641</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1212,14 +1212,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>65387</v>
+        <v>62641</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LOME</t>
+          <t>PORT SUDAN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1228,17 +1228,17 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.25</v>
+        <v>37.21666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>6.166666666666667</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20060521</v>
+        <v>20060208</v>
       </c>
       <c r="O8" t="n">
-        <v>20061028</v>
+        <v>20060724</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1255,11 +1255,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Aflao</t>
+          <t>Sawakin</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20000-0-64450</t>
+          <t>0-20000-0-65202</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1692,14 +1692,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>64450</v>
+        <v>65202</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BRAZZAVILLE /MAYA-MAYA</t>
+          <t>LAGOS/OSHODI</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1708,17 +1708,17 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>15.25</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="L13" t="n">
-        <v>-4.25</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O13" t="n">
-        <v>20061028</v>
+        <v>20061219</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1735,11 +1735,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Brazzaville</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-65202</t>
+          <t>0-20000-0-64450</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1788,14 +1788,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>65202</v>
+        <v>64450</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LAGOS/OSHODI</t>
+          <t>BRAZZAVILLE /MAYA-MAYA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1804,17 +1804,17 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3.383333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>-4.25</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20060104</v>
+        <v>20060101</v>
       </c>
       <c r="O14" t="n">
-        <v>20061219</v>
+        <v>20061028</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20000-0-61415</t>
+          <t>0-20000-0-67095</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2172,14 +2172,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>61415</v>
+        <v>67095</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NOUADHIBOU</t>
+          <t>TOAMASINA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2188,17 +2188,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-17.03638888888889</v>
+        <v>49.4</v>
       </c>
       <c r="L18" t="n">
-        <v>20.92027777777778</v>
+        <v>-18.11666666666667</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20060315</v>
+        <v>20060103</v>
       </c>
       <c r="O18" t="n">
-        <v>20061028</v>
+        <v>20061231</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2215,11 +2215,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Toamasina</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20000-0-67095</t>
+          <t>0-20000-0-61415</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2268,14 +2268,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>67095</v>
+        <v>61415</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TOAMASINA</t>
+          <t>NOUADHIBOU</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2284,17 +2284,17 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>49.4</v>
+        <v>-17.03638888888889</v>
       </c>
       <c r="L19" t="n">
-        <v>-18.11666666666667</v>
+        <v>20.92027777777778</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20060103</v>
+        <v>20060315</v>
       </c>
       <c r="O19" t="n">
-        <v>20061231</v>
+        <v>20061028</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2311,11 +2311,11 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Toamasina</t>
+          <t>Nouadhibou</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-64500</t>
+          <t>0-20300-0-62010</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2364,14 +2364,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>64500</v>
+        <v>62010</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LIBREVILLE</t>
+          <t>TRIPOLI INTL ARPT</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2380,17 +2380,17 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.416666666666666</v>
+        <v>13.1667</v>
       </c>
       <c r="L20" t="n">
-        <v>0.45</v>
+        <v>32.6833</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20060101</v>
+        <v>20060901</v>
       </c>
       <c r="O20" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2407,11 +2407,11 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20300-0-62010</t>
+          <t>0-20000-0-64500</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2460,14 +2460,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>62010</v>
+        <v>64500</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TRIPOLI INTL ARPT</t>
+          <t>LIBREVILLE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2476,17 +2476,17 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>13.1667</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="L21" t="n">
-        <v>32.6833</v>
+        <v>0.45</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20060901</v>
+        <v>20060101</v>
       </c>
       <c r="O21" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2503,11 +2503,11 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-64458</t>
+          <t>0-20000-0-64400</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2748,14 +2748,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>64458</v>
+        <v>64400</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>OUESSO</t>
+          <t>POINTE-NOIRE</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2764,17 +2764,17 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16.05</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>1.616666666666667</v>
+        <v>-4.804444444444444</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O24" t="n">
-        <v>20061228</v>
+        <v>20061219</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Ouesso</t>
+          <t>Loandjili</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20000-0-61831</t>
+          <t>0-20000-0-64458</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2844,14 +2844,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>61831</v>
+        <v>64458</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CONAKRY</t>
+          <t>OUESSO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2860,17 +2860,17 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.61666666666667</v>
+        <v>16.05</v>
       </c>
       <c r="L25" t="n">
-        <v>9.566666666666666</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>20060827</v>
+        <v>20060101</v>
       </c>
       <c r="O25" t="n">
-        <v>20061106</v>
+        <v>20061228</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2887,11 +2887,11 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Conakry</t>
+          <t>Ouesso</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-08594</t>
+          <t>0-20000-0-61831</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2940,14 +2940,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>8594</v>
+        <v>61831</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>CONAKRY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2956,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.94888888888889</v>
+        <v>-13.61666666666667</v>
       </c>
       <c r="L26" t="n">
-        <v>16.74194444444445</v>
+        <v>9.566666666666666</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20060504</v>
+        <v>20060827</v>
       </c>
       <c r="O26" t="n">
-        <v>20060929</v>
+        <v>20061106</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Conakry</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-61902</t>
+          <t>0-20000-0-08594</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3132,14 +3132,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>61902</v>
+        <v>8594</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3148,14 +3148,14 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.40555555555556</v>
+        <v>-22.94888888888889</v>
       </c>
       <c r="L28" t="n">
-        <v>-7.97</v>
+        <v>16.74194444444445</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20060503</v>
+        <v>20060504</v>
       </c>
       <c r="O28" t="n">
         <v>20060929</v>
@@ -3175,11 +3175,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-63894</t>
+          <t>0-20000-0-61902</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3324,14 +3324,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>63894</v>
+        <v>61902</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DAR ES SALAAM INT</t>
+          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3340,14 +3340,14 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.2075</v>
+        <v>-14.40555555555556</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.876111111111111</v>
+        <v>-7.97</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20060607</v>
+        <v>20060503</v>
       </c>
       <c r="O30" t="n">
         <v>20060929</v>
@@ -3367,13 +3367,9 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>227</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Magomeni</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -3410,7 +3406,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-60360</t>
+          <t>0-20000-0-63894</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3420,14 +3416,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>60360</v>
+        <v>63894</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ANNABA</t>
+          <t>DAR ES SALAAM INT</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3436,17 +3432,17 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.816666666666666</v>
+        <v>39.2075</v>
       </c>
       <c r="L31" t="n">
-        <v>36.83333333333334</v>
+        <v>-6.876111111111111</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20060101</v>
+        <v>20060607</v>
       </c>
       <c r="O31" t="n">
-        <v>20061231</v>
+        <v>20060929</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3463,11 +3459,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Tabarqah</t>
+          <t>Magomeni</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -3506,7 +3502,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-60656</t>
+          <t>0-20000-0-60360</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3516,14 +3512,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>60656</v>
+        <v>60360</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TINDOUF</t>
+          <t>ANNABA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3532,17 +3528,17 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.169166666666666</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>27.70416666666667</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O32" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -3563,7 +3559,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Tiznit</t>
+          <t>Tabarqah</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -3602,7 +3598,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-63450</t>
+          <t>0-20000-0-60656</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3612,14 +3608,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>63450</v>
+        <v>60656</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ADDIS ABABA-BOLE</t>
+          <t>TINDOUF</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3628,17 +3624,17 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.75</v>
+        <v>-8.169166666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>9.033333333333331</v>
+        <v>27.70416666666667</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>20060106</v>
+        <v>20060501</v>
       </c>
       <c r="O33" t="n">
-        <v>20061228</v>
+        <v>20060930</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3655,11 +3651,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Addis Abeba</t>
+          <t>Tiznit</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -3698,7 +3694,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-62414</t>
+          <t>0-20000-0-63450</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3708,14 +3704,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>62414</v>
+        <v>63450</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASSWAN</t>
+          <t>ADDIS ABABA-BOLE</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3724,17 +3720,17 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>32.82</v>
+        <v>38.75</v>
       </c>
       <c r="L34" t="n">
-        <v>23.96444444444444</v>
+        <v>9.033333333333331</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>20060501</v>
+        <v>20060106</v>
       </c>
       <c r="O34" t="n">
-        <v>20060930</v>
+        <v>20061228</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3751,11 +3747,11 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Aswan</t>
+          <t>Addis Abeba</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -3794,7 +3790,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-60630</t>
+          <t>0-20000-0-62414</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3804,14 +3800,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>60630</v>
+        <v>62414</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>IN-SALAH</t>
+          <t>ASSWAN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -3820,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.511666666666667</v>
+        <v>32.82</v>
       </c>
       <c r="L35" t="n">
-        <v>27.25361111111112</v>
+        <v>23.96444444444444</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
@@ -3847,11 +3843,11 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Adrar</t>
+          <t>Aswan</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -3986,7 +3982,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-62403</t>
+          <t>0-20000-0-60630</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3996,14 +3992,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>62403</v>
+        <v>60630</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SOUTH OF VALLEY UNIVERSITY</t>
+          <t>IN-SALAH</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4012,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>32.74666666666667</v>
+        <v>2.511666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>26.20027777777777</v>
+        <v>27.25361111111112</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
@@ -4039,11 +4035,11 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Qena</t>
+          <t>Adrar</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4082,7 +4078,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-60155</t>
+          <t>0-20000-0-62403</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4092,14 +4088,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>60155</v>
+        <v>62403</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CASABLANCA</t>
+          <t>SOUTH OF VALLEY UNIVERSITY</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4108,14 +4104,14 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.666666666666667</v>
+        <v>32.74666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>33.56666666666667</v>
+        <v>26.20027777777777</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O38" t="n">
         <v>20060930</v>
@@ -4135,11 +4131,11 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Qena</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -4178,7 +4174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20000-0-62306</t>
+          <t>0-20000-0-60155</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4188,14 +4184,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>62306</v>
+        <v>60155</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MERSA MATRUH</t>
+          <t>CASABLANCA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4204,14 +4200,14 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.22166666666666</v>
+        <v>-7.666666666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>31.32527777777777</v>
+        <v>33.56666666666667</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O39" t="n">
         <v>20060930</v>
@@ -4231,11 +4227,11 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Marsa Matruh</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -4274,7 +4270,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-62423</t>
+          <t>0-20000-0-62306</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4284,14 +4280,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>62423</v>
+        <v>62306</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FARAFRA</t>
+          <t>MERSA MATRUH</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4300,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>27.98916666666666</v>
+        <v>27.22166666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>27.05833333333333</v>
+        <v>31.32527777777777</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
@@ -4331,7 +4327,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Matay</t>
+          <t>Marsa Matruh</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -4370,7 +4366,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-61901</t>
+          <t>0-20000-0-62423</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4380,14 +4376,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>61901</v>
+        <v>62423</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ST. HELENA IS.</t>
+          <t>FARAFRA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4396,17 +4392,17 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.667222222222223</v>
+        <v>27.98916666666666</v>
       </c>
       <c r="L41" t="n">
-        <v>-15.94194444444444</v>
+        <v>27.05833333333333</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>20060501</v>
       </c>
       <c r="O41" t="n">
-        <v>20060929</v>
+        <v>20060930</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4423,11 +4419,11 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Matay</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -4466,7 +4462,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20000-0-63741</t>
+          <t>0-20000-0-61901</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4476,14 +4472,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>63741</v>
+        <v>61901</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>DAGORETTI CORNER</t>
+          <t>ST. HELENA IS.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4492,17 +4488,17 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.75972222222222</v>
+        <v>-5.667222222222223</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.301388888888889</v>
+        <v>-15.94194444444444</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>20060501</v>
       </c>
       <c r="O42" t="n">
-        <v>20060930</v>
+        <v>20060929</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4519,13 +4515,9 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>114</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Nairobi</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -4562,7 +4554,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-60571</t>
+          <t>0-20000-0-63741</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4572,14 +4564,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>60571</v>
+        <v>63741</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BECHAR</t>
+          <t>DAGORETTI CORNER</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4588,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.252222222222222</v>
+        <v>36.75972222222222</v>
       </c>
       <c r="L43" t="n">
-        <v>31.65416666666667</v>
+        <v>-1.301388888888889</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
@@ -4615,11 +4607,11 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Mrirt</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -4754,7 +4746,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-67083</t>
+          <t>0-20000-0-60571</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4764,14 +4756,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>67083</v>
+        <v>60571</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ANTANANARIVO/IVATO</t>
+          <t>BECHAR</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4780,14 +4772,14 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>47.48333333333333</v>
+        <v>-2.252222222222222</v>
       </c>
       <c r="L45" t="n">
-        <v>-18.8</v>
+        <v>31.65416666666667</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O45" t="n">
         <v>20060930</v>
@@ -4807,11 +4799,11 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>Mrirt</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -4946,7 +4938,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-60018</t>
+          <t>0-20000-0-67083</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4956,14 +4948,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>60018</v>
+        <v>67083</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>TENERIFE-GUIMAR</t>
+          <t>ANTANANARIVO/IVATO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -4972,14 +4964,14 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.38222222222222</v>
+        <v>47.48333333333333</v>
       </c>
       <c r="L47" t="n">
-        <v>28.31833333333333</v>
+        <v>-18.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O47" t="n">
         <v>20060930</v>
@@ -4999,11 +4991,11 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Guimar</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5138,7 +5130,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-60680</t>
+          <t>0-20000-0-60018</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5148,14 +5140,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>60680</v>
+        <v>60018</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TAMANRASSET</t>
+          <t>TENERIFE-GUIMAR</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5164,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>5.452500000000001</v>
+        <v>-16.38222222222222</v>
       </c>
       <c r="L49" t="n">
-        <v>22.82527777777777</v>
+        <v>28.31833333333333</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
@@ -5191,11 +5183,11 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Arlit</t>
+          <t>Guimar</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5234,7 +5226,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-08589</t>
+          <t>0-20000-0-60680</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5244,14 +5236,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>8589</v>
+        <v>60680</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PRAIA</t>
+          <t>TAMANRASSET</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5260,17 +5252,17 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-23.48472222222222</v>
+        <v>5.452500000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>14.94111111111111</v>
+        <v>22.82527777777777</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20060818</v>
+        <v>20060501</v>
       </c>
       <c r="O50" t="n">
-        <v>20060914</v>
+        <v>20060930</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5287,11 +5279,11 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Praia</t>
+          <t>Arlit</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -5426,7 +5418,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-64650</t>
+          <t>0-20000-0-08589</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5436,14 +5428,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>64650</v>
+        <v>8589</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BANGUI</t>
+          <t>PRAIA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5452,17 +5444,17 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>18.51666666666667</v>
+        <v>-23.48472222222222</v>
       </c>
       <c r="L52" t="n">
-        <v>4.4</v>
+        <v>14.94111111111111</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>20060427</v>
+        <v>20060818</v>
       </c>
       <c r="O52" t="n">
-        <v>20061214</v>
+        <v>20060914</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5479,11 +5471,11 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Bangui</t>
+          <t>Praia</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -5522,7 +5514,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-64870</t>
+          <t>0-20000-0-60715</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5532,14 +5524,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>64870</v>
+        <v>60715</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NGAOUNDERE</t>
+          <t>TUNIS-CARTHAGE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5548,10 +5540,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>13.56666666666667</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="L53" t="n">
-        <v>7.35</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
@@ -5575,11 +5567,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Ngaoundere</t>
+          <t>Aryanah</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -5618,7 +5610,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-61223</t>
+          <t>0-20000-0-64650</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -5628,14 +5620,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>61223</v>
+        <v>64650</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TOMBOUCTOU</t>
+          <t>BANGUI</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5644,17 +5636,17 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-3</v>
+        <v>18.51666666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>16.71666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>20060101</v>
+        <v>20060427</v>
       </c>
       <c r="O54" t="n">
-        <v>20061231</v>
+        <v>20061214</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5671,11 +5663,11 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Tombouctou</t>
+          <t>Bangui</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -5714,7 +5706,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-64700</t>
+          <t>0-20000-0-64870</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5724,14 +5716,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>64700</v>
+        <v>64870</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NDJAMENA</t>
+          <t>NGAOUNDERE</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5740,17 +5732,17 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>15.03333333333333</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>12.13333333333333</v>
+        <v>7.35</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>20060101</v>
+        <v>20060501</v>
       </c>
       <c r="O55" t="n">
-        <v>20061217</v>
+        <v>20060930</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5767,11 +5759,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Kousseri</t>
+          <t>Ngaoundere</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -5810,7 +5802,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-60715</t>
+          <t>0-20000-0-61223</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5820,14 +5812,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>60715</v>
+        <v>61223</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>TUNIS-CARTHAGE</t>
+          <t>TOMBOUCTOU</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5836,17 +5828,17 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>10.23333333333333</v>
+        <v>-3</v>
       </c>
       <c r="L56" t="n">
-        <v>36.83333333333334</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O56" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5863,11 +5855,11 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Aryanah</t>
+          <t>Tombouctou</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -6098,7 +6090,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20000-0-61291</t>
+          <t>0-20000-0-64700</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -6108,14 +6100,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>61291</v>
+        <v>64700</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BAMAKO/SENOU</t>
+          <t>NDJAMENA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -6124,17 +6116,17 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.95</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="L59" t="n">
-        <v>12.53333333333333</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>20060101</v>
       </c>
       <c r="O59" t="n">
-        <v>20061231</v>
+        <v>20061217</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6151,11 +6143,11 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Bamako</t>
+          <t>Kousseri</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -6194,7 +6186,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-61641</t>
+          <t>0-20000-0-61291</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -6204,14 +6196,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>61641</v>
+        <v>61291</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DAKAR/YOFF</t>
+          <t>BAMAKO/SENOU</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -6220,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.5</v>
+        <v>-7.95</v>
       </c>
       <c r="L60" t="n">
-        <v>14.73</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
@@ -6247,11 +6239,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Bamako</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -6290,7 +6282,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20000-0-61442</t>
+          <t>0-20000-0-61641</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -6300,14 +6292,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>61442</v>
+        <v>61641</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>NOUAKCHOTT / Oumtounsy</t>
+          <t>DAKAR/YOFF</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6316,14 +6308,14 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-15.97555555555556</v>
+        <v>-17.5</v>
       </c>
       <c r="L61" t="n">
-        <v>18.30027777777778</v>
+        <v>14.73</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>20060105</v>
+        <v>20060101</v>
       </c>
       <c r="O61" t="n">
         <v>20061231</v>
@@ -6343,11 +6335,11 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Nouakchott</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -6386,7 +6378,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20000-0-61024</t>
+          <t>0-20001-0-64910</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -6396,14 +6388,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>61024</v>
+        <v>64910</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AGADEZ</t>
+          <t>DOUALA R.S.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6412,17 +6404,17 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>7.983333333333333</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>16.96666666666667</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20060120</v>
+        <v>20060209</v>
       </c>
       <c r="O62" t="n">
-        <v>20061010</v>
+        <v>20061220</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6439,11 +6431,11 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Agadez</t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -6482,7 +6474,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20001-0-64910</t>
+          <t>0-20000-0-65125</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -6492,14 +6484,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>64910</v>
+        <v>65125</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DOUALA R.S.</t>
+          <t>ABUJA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6508,17 +6500,17 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
-        <v>4.016666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>20060209</v>
+        <v>20060608</v>
       </c>
       <c r="O63" t="n">
-        <v>20061220</v>
+        <v>20061226</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -6535,11 +6527,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Douala</t>
+          <t>Abuja</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -6578,7 +6570,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-65125</t>
+          <t>0-20000-0-61442</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -6588,14 +6580,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>65125</v>
+        <v>61442</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ABUJA</t>
+          <t>NOUAKCHOTT / Oumtounsy</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6604,17 +6596,17 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>7</v>
+        <v>-15.97555555555556</v>
       </c>
       <c r="L64" t="n">
-        <v>9.25</v>
+        <v>18.30027777777778</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>20060608</v>
+        <v>20060105</v>
       </c>
       <c r="O64" t="n">
-        <v>20061226</v>
+        <v>20061231</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6631,11 +6623,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Abuja</t>
+          <t>Nouakchott</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -6674,7 +6666,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-61052</t>
+          <t>0-20000-0-61024</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -6684,14 +6676,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>61052</v>
+        <v>61024</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NIAMEY-AERO</t>
+          <t>AGADEZ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6700,17 +6692,17 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2.166666666666667</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="L65" t="n">
-        <v>13.48333333333333</v>
+        <v>16.96666666666667</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>20060118</v>
+        <v>20060120</v>
       </c>
       <c r="O65" t="n">
-        <v>20061231</v>
+        <v>20061010</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6731,7 +6723,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Agadez</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -6866,7 +6858,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-65344</t>
+          <t>0-20000-0-65330</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -6876,14 +6868,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>65344</v>
+        <v>65330</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>COTONOU</t>
+          <t>PARAKOU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -6892,17 +6884,17 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2.383333333333333</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>6.35</v>
+        <v>9.35</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>20060101</v>
       </c>
       <c r="O67" t="n">
-        <v>20061213</v>
+        <v>20061231</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6923,7 +6915,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Cotonou</t>
+          <t>Parakou</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -6962,7 +6954,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-65330</t>
+          <t>0-20000-0-61052</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -6972,14 +6964,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>65330</v>
+        <v>61052</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PARAKOU</t>
+          <t>NIAMEY-AERO</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -6988,14 +6980,14 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2.616666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>9.35</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>20060101</v>
+        <v>20060118</v>
       </c>
       <c r="O68" t="n">
         <v>20061231</v>
@@ -7015,11 +7007,11 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Parakou</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -7052,6 +7044,102 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0-20000-0-65344</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="n">
+        <v>65344</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>COTONOU</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>20060101</v>
+      </c>
+      <c r="O69" t="n">
+        <v>20061213</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>63</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>25</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Cotonou</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>['126', '137', '106', '107', '117']</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>L.Haimberger</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
